--- a/Metropolitan Roads/24969/ITP-055-CIV-CPD-Conduit & Pits-Rail (Supply & Install) Rev0.xlsx
+++ b/Metropolitan Roads/24969/ITP-055-CIV-CPD-Conduit & Pits-Rail (Supply & Install) Rev0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Calder Park\ITP's\In review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\24969\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6846CF5-3148-4436-BA8C-03C9753720DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5CEDD4-F79D-415B-A834-03E3F5763657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="480" windowWidth="28545" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,12 +1059,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1391,7 +1385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1516,35 +1510,29 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1562,6 +1550,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1579,66 +1627,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2037,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2055,124 +2043,124 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="L1" s="84" t="s">
+      <c r="C1" s="59"/>
+      <c r="L1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="F2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
+      <c r="D3" s="58"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="60"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <v>0</v>
       </c>
-      <c r="D5" s="62"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="66">
+      <c r="C6" s="64">
         <v>45142</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="95"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="56">
         <f>C5</f>
         <v>0</v>
       </c>
@@ -2183,28 +2171,28 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="55">
         <f>C6</f>
         <v>45142</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="92"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="O14" s="1"/>
@@ -2213,15 +2201,15 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="O15" s="1"/>
@@ -2247,43 +2235,43 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81" t="s">
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="81" t="s">
+      <c r="K17" s="89" t="s">
         <v>24</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="51" t="s">
         <v>25</v>
       </c>
@@ -2293,10 +2281,10 @@
       <c r="G18" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="81"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="89"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
@@ -2304,18 +2292,18 @@
       <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
     </row>
     <row r="20" spans="1:19" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
@@ -2369,18 +2357,18 @@
       <c r="A22" s="19">
         <v>2</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
     </row>
     <row r="23" spans="1:19" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
@@ -2389,10 +2377,10 @@
       <c r="B23" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="52" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="39" t="s">
@@ -2420,10 +2408,10 @@
       <c r="B24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="52" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="39" t="s">
@@ -2485,7 +2473,7 @@
       <c r="C26" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="52" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="39" t="s">
@@ -2634,97 +2622,97 @@
       <c r="A31" s="19">
         <v>3</v>
       </c>
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
     </row>
     <row r="32" spans="1:19" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="67">
+      <c r="A32" s="65">
         <v>3.1</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="70" t="s">
+      <c r="F32" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="70" t="s">
+      <c r="H32" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="70" t="s">
+      <c r="I32" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
     </row>
     <row r="33" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="67">
+      <c r="A33" s="65">
         <v>3.2</v>
       </c>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="70" t="s">
+      <c r="H33" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="70" t="s">
+      <c r="I33" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
     </row>
     <row r="34" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>4</v>
       </c>
-      <c r="B34" s="82" t="s">
+      <c r="B34" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
     </row>
     <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="44">
@@ -2779,7 +2767,7 @@
       <c r="G36" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="H36" s="68" t="s">
         <v>69</v>
       </c>
       <c r="I36" s="39" t="s">
@@ -2792,18 +2780,18 @@
       <c r="A37" s="19">
         <v>5</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
     </row>
     <row r="38" spans="1:14" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A38" s="20">
@@ -2928,9 +2916,9 @@
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
     </row>
     <row r="42" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A42" s="20">
@@ -2962,9 +2950,9 @@
       </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
     </row>
     <row r="43" spans="1:14" ht="135" x14ac:dyDescent="0.2">
       <c r="A43" s="20">
@@ -3100,7 +3088,7 @@
       <c r="C47" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="54" t="s">
         <v>121</v>
       </c>
       <c r="E47" s="39" t="s">
@@ -3151,9 +3139,9 @@
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
     </row>
     <row r="49" spans="1:14" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A49" s="20">
@@ -3673,18 +3661,18 @@
       <c r="A65" s="19">
         <v>6</v>
       </c>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="82"/>
-      <c r="J65" s="82"/>
-      <c r="K65" s="82"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85"/>
     </row>
     <row r="66" spans="1:11" ht="146.25" x14ac:dyDescent="0.2">
       <c r="A66" s="20">
@@ -3812,46 +3800,46 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="72"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="90"/>
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="25"/>
-      <c r="B71" s="73" t="s">
+      <c r="B71" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
-      <c r="K71" s="74"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="91"/>
+      <c r="H71" s="91"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="91"/>
+      <c r="K71" s="92"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="25"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
-      <c r="K72" s="74"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
+      <c r="F72" s="91"/>
+      <c r="G72" s="91"/>
+      <c r="H72" s="91"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="92"/>
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
@@ -3870,20 +3858,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B65:K65"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B70:K70"/>
+    <mergeCell ref="B71:K72"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L48:N48"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="K17:K18"/>
@@ -3893,11 +3872,20 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B70:K70"/>
-    <mergeCell ref="B71:K72"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="E12:I12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3920,6 +3908,129 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Value>977</Value>
+    </TaxCatchAll>
+    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-372402</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
+      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-372402</Url>
+      <Description>MRPA-1160097302-372402</Description>
+    </_dlc_DocIdUrl>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
+      <UserInfo>
+        <DisplayName>WONG, Hui</DisplayName>
+        <AccountId>464</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>BAJAJ, Shubham</DisplayName>
+        <AccountId>234</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </me5b5cb8f12249249ca913346c48a983>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j3373299c44a42499a29e1915264a3b5>
+    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d0c3539471b44cfa8fe7a085a2c8a5d5>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brunt Road</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">61864b15-5581-41fa-93cf-6a4f4b0209b1</TermId>
+        </TermInfo>
+      </Terms>
+    </l1532197b8344cb19adf5365ae4ff0ff>
+    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </cc33861001d04fbf92e96c5a2d70a7b6>
+    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
+    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A70E945F2728E4A865DDF9F320753FE" ma:contentTypeVersion="84" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="65e85bf42f9d8fc461831d801b893fc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2836469c-b43e-4aa1-9b97-2c3e7041e824" xmlns:ns3="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns4="8aefd74c-d14b-451e-bb38-cf3a729b3efa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68a23495b3313ed338310bec7a8b720b" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4333,130 +4444,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Value>977</Value>
-    </TaxCatchAll>
-    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-372402</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
-      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-372402</Url>
-      <Description>MRPA-1160097302-372402</Description>
-    </_dlc_DocIdUrl>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
-      <UserInfo>
-        <DisplayName>WONG, Hui</DisplayName>
-        <AccountId>464</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>BAJAJ, Shubham</DisplayName>
-        <AccountId>234</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </me5b5cb8f12249249ca913346c48a983>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j3373299c44a42499a29e1915264a3b5>
-    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </d0c3539471b44cfa8fe7a085a2c8a5d5>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Brunt Road</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">61864b15-5581-41fa-93cf-6a4f4b0209b1</TermId>
-        </TermInfo>
-      </Terms>
-    </l1532197b8344cb19adf5365ae4ff0ff>
-    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </cc33861001d04fbf92e96c5a2d70a7b6>
-    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
-    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
+    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
+    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F2068A-01C0-407A-A354-12DD17270B2E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4475,33 +4492,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
-    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
-    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>